--- a/biology/Botanique/Reglindis_(pomme)/Reglindis_(pomme).xlsx
+++ b/biology/Botanique/Reglindis_(pomme)/Reglindis_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reglindis est un cultivar de pommier domestique.
 Nom botanique: Malus domestica reglindis
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calibre : moyen
 Épicarpe : couleur présentant une gradation partant d'un peu d'olive modéré dans la cuvette pédonculaire suivi d'un fond jaune modéré passant au rouge intense jusque profond pour la face exposée au soleil.
@@ -546,9 +560,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Institut de Dresde-Pillnitz, Allemagne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Institut de Dresde-Pillnitz, Allemagne.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La pomme Reglindis résulte du croisement James Grieve × 13X44,18.
 Descendants:
@@ -609,7 +627,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde
 Variétés pollinisatrices: Retina, Remo, Rewena
@@ -641,7 +661,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La variété Reglindis est multirésistante.
 Tavelure : très résistante aux races de tavelure du pommier (gène VA)
@@ -674,7 +696,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité : fin août.
 Consommation : pendant le mois de septembre.
